--- a/entrenamiento/resultados/Aproximacion2.xlsx
+++ b/entrenamiento/resultados/Aproximacion2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/pablo_paramo_telle_udc_es/Documents/UDC4/TFG/ComunicELA-tfg/entrenamiento/resultados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048B8A15C52B85ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF7481C-D617-4333-861D-C217EAA0A237}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Mean EMC Val</t>
+  </si>
+  <si>
+    <t>Std EMC Val</t>
+  </si>
+  <si>
+    <t>Mean EUC Loss</t>
+  </si>
+  <si>
+    <t>Std EUC Loss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +356,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/entrenamiento/resultados/Aproximacion2.xlsx
+++ b/entrenamiento/resultados/Aproximacion2.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/pablo_paramo_telle_udc_es/Documents/UDC4/TFG/ComunicELA-tfg/entrenamiento/resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive - Universidade da Coruña\UDC4\TFG\ComunicELA-tfg\entrenamiento\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048B8A15C52B85ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF7481C-D617-4333-861D-C217EAA0A237}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA6E94-DA07-4A47-99E0-6EB6066B0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Modelo</t>
   </si>
@@ -40,19 +35,66 @@
   </si>
   <si>
     <t>Std EUC Loss</t>
+  </si>
+  <si>
+    <t>Primeras observaciones -&gt; Batch_size 1000, lr 0.002, inicializacion pesos estandar, lr scheduler 0.5 a 0.0001</t>
+  </si>
+  <si>
+    <t>1-20-35-55</t>
+  </si>
+  <si>
+    <t>2-20-35-55</t>
+  </si>
+  <si>
+    <t>3-20-35-55</t>
+  </si>
+  <si>
+    <t>4-20-35-55</t>
+  </si>
+  <si>
+    <t>Segundas observaciones -&gt; Batch_size 100, lr 0.002, inicializacion pesos xavier, lr scheduler 0.5 a 0.0001</t>
+  </si>
+  <si>
+    <t>Modelos mas grandes no convergen, con sigmoide tampoco</t>
+  </si>
+  <si>
+    <t>Terceras observaciones con tamaños de imagenes diferentes con la 3 y la 4 ya que son las mejores</t>
+  </si>
+  <si>
+    <t>Batch_size 100, lr 0.002, inicializacion pesos xavier, lr scheduler 0.5 a 0.0001</t>
+  </si>
+  <si>
+    <t>3-3-15-15-15</t>
+  </si>
+  <si>
+    <t>3-4-15-15-15</t>
+  </si>
+  <si>
+    <t>4-3-15-35-15</t>
+  </si>
+  <si>
+    <t>4-4-15-35-15</t>
+  </si>
+  <si>
+    <t>Se escoge el Dataset de imagenes 15-15-15 y el modelo 3-3 de las terceras observaciones para la fusionNet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,18 +113,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -105,44 +165,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -169,15 +229,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -204,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -216,173 +274,437 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>8.0904455589999993E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.0839484159999997E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.37702734409999999</v>
+      </c>
+      <c r="E3">
+        <v>1.993459341E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.10933297390000001</v>
+      </c>
+      <c r="C4">
+        <v>4.1784568530000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.41896965000000003</v>
+      </c>
+      <c r="E4">
+        <v>6.4975886390000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8.0556607030000005E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.956003338E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.3762853599</v>
+      </c>
+      <c r="E5">
+        <v>1.7284214129999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8.0494233959999995E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.0621190660000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.37606287100000002</v>
+      </c>
+      <c r="E6">
+        <v>1.9972928840000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3.3889459109999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.2414442069999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.2158331208</v>
+      </c>
+      <c r="E9">
+        <v>8.5742931199999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6.256928514E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.0872127079999997E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.32371067790000002</v>
+      </c>
+      <c r="E10">
+        <v>2.697532046E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3.071693159E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.28268046E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.20284282649999999</v>
+      </c>
+      <c r="E11">
+        <v>8.5178509129999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>3.0300685720000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.223968275E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.20272730489999999</v>
+      </c>
+      <c r="E12">
+        <v>8.6479538869999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2.1237883749999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.2093228730000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.1696209011</v>
+      </c>
+      <c r="E16">
+        <v>5.7109086480000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2.824735237027378E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.047340603466077E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.1936694558136981</v>
+      </c>
+      <c r="E17">
+        <v>8.2398191926978184E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.4484989504011437E-2</v>
+      </c>
+      <c r="C18">
+        <v>2.3500185743514701E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.21398690497346959</v>
+      </c>
+      <c r="E18">
+        <v>9.356219346837133E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.7377178381525091E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.8008711293389278E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.1915177390782013</v>
+      </c>
+      <c r="E19">
+        <v>7.8174374089508947E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/entrenamiento/resultados/Aproximacion2.xlsx
+++ b/entrenamiento/resultados/Aproximacion2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive - Universidade da Coruña\UDC4\TFG\ComunicELA-tfg\entrenamiento\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/pablo_paramo_telle_udc_es/Documents/UDC4/TFG/ComunicELA-tfg/entrenamiento/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA6E94-DA07-4A47-99E0-6EB6066B0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4121EB-B7BD-453F-A6C6-EDBD70116562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Modelo</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Se escoge el Dataset de imagenes 15-15-15 y el modelo 3-3 de las terceras observaciones para la fusionNet</t>
+  </si>
+  <si>
+    <t>18-15-15-15</t>
+  </si>
+  <si>
+    <t>34-15-15-15</t>
   </si>
 </sst>
 </file>
@@ -105,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,14 +134,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,9 +726,43 @@
         <v>7.8174374089508947E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.2425920290000002E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.7141856309999998E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.17179384719999999</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7.4130151170000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>2.09739276057321E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.48236300644138E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.16989446888458901</v>
+      </c>
+      <c r="E24">
+        <v>6.6298697244129096E-2</v>
       </c>
     </row>
   </sheetData>

--- a/entrenamiento/resultados/Aproximacion2.xlsx
+++ b/entrenamiento/resultados/Aproximacion2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/pablo_paramo_telle_udc_es/Documents/UDC4/TFG/ComunicELA-tfg/entrenamiento/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4121EB-B7BD-453F-A6C6-EDBD70116562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3B4121EB-B7BD-453F-A6C6-EDBD70116562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B74A472D-CAC1-4F83-8A4F-6845A69A80B1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34485" yWindow="1110" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,13 +76,13 @@
     <t>4-4-15-35-15</t>
   </si>
   <si>
-    <t>Se escoge el Dataset de imagenes 15-15-15 y el modelo 3-3 de las terceras observaciones para la fusionNet</t>
-  </si>
-  <si>
     <t>18-15-15-15</t>
   </si>
   <si>
     <t>34-15-15-15</t>
+  </si>
+  <si>
+    <t>Se escoge el Dataset de imagenes 15-15-15 y el modelo 3-3 de las terceras observaciones para la ResNet</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,12 +728,12 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
         <v>2.2425920290000002E-2</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>2.09739276057321E-2</v>

--- a/entrenamiento/resultados/Aproximacion2.xlsx
+++ b/entrenamiento/resultados/Aproximacion2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/pablo_paramo_telle_udc_es/Documents/UDC4/TFG/ComunicELA-tfg/entrenamiento/resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive - Universidade da Coruña\UDC4\TFG\ComunicELA-tfg\entrenamiento\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3B4121EB-B7BD-453F-A6C6-EDBD70116562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B74A472D-CAC1-4F83-8A4F-6845A69A80B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D34187-0AF6-499D-B45B-D374A7E0763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34485" yWindow="1110" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Std EUC Loss</t>
   </si>
   <si>
-    <t>Primeras observaciones -&gt; Batch_size 1000, lr 0.002, inicializacion pesos estandar, lr scheduler 0.5 a 0.0001</t>
-  </si>
-  <si>
     <t>1-20-35-55</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Se escoge el Dataset de imagenes 15-15-15 y el modelo 3-3 de las terceras observaciones para la ResNet</t>
+  </si>
+  <si>
+    <t>Primeras observaciones -&gt; Batch_size 1000, lr 0.001, inicializacion pesos estandar, lr scheduler 0.5 a 0.0001</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,12 +501,12 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>8.0904455589999993E-2</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.10933297390000001</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>8.0556607030000005E-2</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>8.0494233959999995E-2</v>
@@ -574,15 +574,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>3.3889459109999999E-2</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>6.256928514E-2</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>3.071693159E-2</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>3.0300685720000001E-2</v>
@@ -650,17 +650,17 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2.1237883749999999E-2</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2.824735237027378E-2</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>3.4484989504011437E-2</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>2.7377178381525091E-2</v>
@@ -728,12 +728,12 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3">
         <v>2.2425920290000002E-2</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>2.09739276057321E-2</v>
